--- a/va_facility_data_2025-02-20/Jerry L. Pettis Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''Jerry%20L.%20Pettis%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jerry L. Pettis Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''Jerry%20L.%20Pettis%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rbb98aa2fe24a4be481e3170f4b941cc0"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rf3c14e08ddf44bd0856874a31536a871"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc2c132faf3d5487ca2f37c1d1577d728"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R1394b97ba778491e89cf5d8964c3b4fe"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rc2ca208e83e04e1b8bb894014645adc5"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rd7ff04030ba74e81a9469a4856aa4fa7"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R0a9c9297d1cb400cba5436eaf4184520"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Ra8350c3072d8466f9eae44f6fd854969"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R8be5593a8c044377a735587385e36608"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rd2447ffea41f4f3e8d1a9a2d5cd24a3a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R64ecb92da1704aad812b1c5a33aad1c1"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rad27381e92324eb7a6ea848aaf98be52"/>
   </x:sheets>
 </x:workbook>
 </file>
